--- a/simulation_data/iterative_algorithm/i_error_level_15_percent_water_99.xlsx
+++ b/simulation_data/iterative_algorithm/i_error_level_15_percent_water_99.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -452,10 +452,10 @@
         <v>90</v>
       </c>
       <c r="C2" t="n">
-        <v>91.32750826901369</v>
+        <v>89.76304135445312</v>
       </c>
       <c r="D2" t="n">
-        <v>38.11978300178984</v>
+        <v>40.61450464196272</v>
       </c>
     </row>
     <row r="3">
@@ -466,10 +466,10 @@
         <v>89</v>
       </c>
       <c r="C3" t="n">
-        <v>85.08779534646173</v>
+        <v>84.52587536371053</v>
       </c>
       <c r="D3" t="n">
-        <v>40.11100793747793</v>
+        <v>38.01184192324086</v>
       </c>
     </row>
     <row r="4">
@@ -480,10 +480,10 @@
         <v>88</v>
       </c>
       <c r="C4" t="n">
-        <v>89.57646276479142</v>
+        <v>86.62116549528623</v>
       </c>
       <c r="D4" t="n">
-        <v>43.07774111146439</v>
+        <v>34.65647566834582</v>
       </c>
     </row>
     <row r="5">
@@ -494,10 +494,10 @@
         <v>87</v>
       </c>
       <c r="C5" t="n">
-        <v>84.8664602733291</v>
+        <v>88.05312464138062</v>
       </c>
       <c r="D5" t="n">
-        <v>38.99328744481276</v>
+        <v>42.29576885505475</v>
       </c>
     </row>
     <row r="6">
@@ -508,10 +508,10 @@
         <v>86</v>
       </c>
       <c r="C6" t="n">
-        <v>89.82821279012126</v>
+        <v>81.11725566955758</v>
       </c>
       <c r="D6" t="n">
-        <v>38.16534872395478</v>
+        <v>39.21363372721289</v>
       </c>
     </row>
     <row r="7">
@@ -522,10 +522,10 @@
         <v>85</v>
       </c>
       <c r="C7" t="n">
-        <v>89.90909347514226</v>
+        <v>77.90534080188432</v>
       </c>
       <c r="D7" t="n">
-        <v>45.37262701054204</v>
+        <v>37.35979811118205</v>
       </c>
     </row>
     <row r="8">
@@ -536,10 +536,10 @@
         <v>84</v>
       </c>
       <c r="C8" t="n">
-        <v>85.39883449033474</v>
+        <v>82.67581070335916</v>
       </c>
       <c r="D8" t="n">
-        <v>34.27044134375488</v>
+        <v>34.88750465589078</v>
       </c>
     </row>
     <row r="9">
@@ -550,10 +550,10 @@
         <v>83</v>
       </c>
       <c r="C9" t="n">
-        <v>82.74431424236023</v>
+        <v>81.79007202614633</v>
       </c>
       <c r="D9" t="n">
-        <v>39.34346202983943</v>
+        <v>39.87765421118875</v>
       </c>
     </row>
     <row r="10">
@@ -564,10 +564,10 @@
         <v>82</v>
       </c>
       <c r="C10" t="n">
-        <v>83.85092921169635</v>
+        <v>83.90091559852959</v>
       </c>
       <c r="D10" t="n">
-        <v>35.136703549076</v>
+        <v>36.41933762581447</v>
       </c>
     </row>
     <row r="11">
@@ -578,10 +578,10 @@
         <v>81</v>
       </c>
       <c r="C11" t="n">
-        <v>87.80304715664315</v>
+        <v>77.94616220156176</v>
       </c>
       <c r="D11" t="n">
-        <v>35.08889563926387</v>
+        <v>35.67371027006631</v>
       </c>
     </row>
     <row r="12">
@@ -592,10 +592,10 @@
         <v>80</v>
       </c>
       <c r="C12" t="n">
-        <v>76.06401421718822</v>
+        <v>80.28289284929177</v>
       </c>
       <c r="D12" t="n">
-        <v>40.53305953143856</v>
+        <v>35.75547058777347</v>
       </c>
     </row>
     <row r="13">
@@ -606,10 +606,10 @@
         <v>79</v>
       </c>
       <c r="C13" t="n">
-        <v>72.60266784831263</v>
+        <v>75.35108800576754</v>
       </c>
       <c r="D13" t="n">
-        <v>35.25378099815779</v>
+        <v>36.38018165103143</v>
       </c>
     </row>
     <row r="14">
@@ -620,10 +620,10 @@
         <v>78</v>
       </c>
       <c r="C14" t="n">
-        <v>72.91291932063075</v>
+        <v>71.63559786959553</v>
       </c>
       <c r="D14" t="n">
-        <v>35.45899243006978</v>
+        <v>39.9643525230662</v>
       </c>
     </row>
     <row r="15">
@@ -634,10 +634,10 @@
         <v>77</v>
       </c>
       <c r="C15" t="n">
-        <v>73.95307727449176</v>
+        <v>71.07519490419729</v>
       </c>
       <c r="D15" t="n">
-        <v>39.12539844293808</v>
+        <v>39.32079639925251</v>
       </c>
     </row>
     <row r="16">
@@ -648,10 +648,10 @@
         <v>76</v>
       </c>
       <c r="C16" t="n">
-        <v>74.94186901571209</v>
+        <v>76.63021923023301</v>
       </c>
       <c r="D16" t="n">
-        <v>38.64160839014389</v>
+        <v>39.42966411340092</v>
       </c>
     </row>
     <row r="17">
@@ -662,10 +662,10 @@
         <v>75</v>
       </c>
       <c r="C17" t="n">
-        <v>72.87016352771035</v>
+        <v>74.059638873605</v>
       </c>
       <c r="D17" t="n">
-        <v>38.16495115881162</v>
+        <v>33.39153941380624</v>
       </c>
     </row>
     <row r="18">
@@ -676,10 +676,10 @@
         <v>74</v>
       </c>
       <c r="C18" t="n">
-        <v>79.74389808881173</v>
+        <v>73.17108070356397</v>
       </c>
       <c r="D18" t="n">
-        <v>38.39512440598125</v>
+        <v>39.34916542247512</v>
       </c>
     </row>
     <row r="19">
@@ -690,10 +690,10 @@
         <v>73</v>
       </c>
       <c r="C19" t="n">
-        <v>68.97488554941663</v>
+        <v>75.52447069012936</v>
       </c>
       <c r="D19" t="n">
-        <v>35.65146877011694</v>
+        <v>40.07090228418343</v>
       </c>
     </row>
     <row r="20">
@@ -704,10 +704,10 @@
         <v>72</v>
       </c>
       <c r="C20" t="n">
-        <v>70.76396483565405</v>
+        <v>67.53985298130461</v>
       </c>
       <c r="D20" t="n">
-        <v>41.41970463662182</v>
+        <v>42.00347111078806</v>
       </c>
     </row>
     <row r="21">
@@ -718,10 +718,10 @@
         <v>71</v>
       </c>
       <c r="C21" t="n">
-        <v>82.95495075772369</v>
+        <v>69.97181483060194</v>
       </c>
       <c r="D21" t="n">
-        <v>37.20646242897296</v>
+        <v>39.99817292639268</v>
       </c>
     </row>
     <row r="22">
@@ -732,10 +732,10 @@
         <v>70</v>
       </c>
       <c r="C22" t="n">
-        <v>73.0178754087149</v>
+        <v>65.939450230364</v>
       </c>
       <c r="D22" t="n">
-        <v>39.60935590158311</v>
+        <v>39.99563607279556</v>
       </c>
     </row>
     <row r="23">
@@ -746,10 +746,10 @@
         <v>69</v>
       </c>
       <c r="C23" t="n">
-        <v>65.75507417918543</v>
+        <v>70.32275211544577</v>
       </c>
       <c r="D23" t="n">
-        <v>35.71090518780775</v>
+        <v>34.6019595202774</v>
       </c>
     </row>
     <row r="24">
@@ -760,10 +760,10 @@
         <v>68</v>
       </c>
       <c r="C24" t="n">
-        <v>72.60436529878672</v>
+        <v>65.61117851968352</v>
       </c>
       <c r="D24" t="n">
-        <v>36.9083724178666</v>
+        <v>36.63895179239765</v>
       </c>
     </row>
     <row r="25">
@@ -774,10 +774,10 @@
         <v>67</v>
       </c>
       <c r="C25" t="n">
-        <v>61.26064116633179</v>
+        <v>60.24323545754181</v>
       </c>
       <c r="D25" t="n">
-        <v>35.41946620199576</v>
+        <v>35.89186281429143</v>
       </c>
     </row>
     <row r="26">
@@ -788,10 +788,10 @@
         <v>66</v>
       </c>
       <c r="C26" t="n">
-        <v>56.43395788698169</v>
+        <v>60.32992176195844</v>
       </c>
       <c r="D26" t="n">
-        <v>40.37049737599351</v>
+        <v>37.15826300276808</v>
       </c>
     </row>
     <row r="27">
@@ -802,10 +802,10 @@
         <v>65</v>
       </c>
       <c r="C27" t="n">
-        <v>66.13267918421781</v>
+        <v>61.07525840052462</v>
       </c>
       <c r="D27" t="n">
-        <v>42.94734143861325</v>
+        <v>37.02976420710932</v>
       </c>
     </row>
     <row r="28">
@@ -816,10 +816,10 @@
         <v>64</v>
       </c>
       <c r="C28" t="n">
-        <v>69.39589062369573</v>
+        <v>63.62158496181843</v>
       </c>
       <c r="D28" t="n">
-        <v>37.81084364263429</v>
+        <v>42.25206707139856</v>
       </c>
     </row>
     <row r="29">
@@ -830,10 +830,10 @@
         <v>63</v>
       </c>
       <c r="C29" t="n">
-        <v>57.34406290916082</v>
+        <v>63.86856771343511</v>
       </c>
       <c r="D29" t="n">
-        <v>35.82569662680693</v>
+        <v>41.29462320369843</v>
       </c>
     </row>
     <row r="30">
@@ -844,10 +844,10 @@
         <v>62</v>
       </c>
       <c r="C30" t="n">
-        <v>59.61635342159261</v>
+        <v>60.0458303842223</v>
       </c>
       <c r="D30" t="n">
-        <v>40.08057085133997</v>
+        <v>37.20118512647991</v>
       </c>
     </row>
     <row r="31">
@@ -858,10 +858,10 @@
         <v>61</v>
       </c>
       <c r="C31" t="n">
-        <v>64.54870250738757</v>
+        <v>64.94158939278712</v>
       </c>
       <c r="D31" t="n">
-        <v>36.89333054858395</v>
+        <v>39.99592357898062</v>
       </c>
     </row>
     <row r="32">
@@ -872,10 +872,10 @@
         <v>60</v>
       </c>
       <c r="C32" t="n">
-        <v>56.76190545449816</v>
+        <v>54.33007222530103</v>
       </c>
       <c r="D32" t="n">
-        <v>41.20096638329964</v>
+        <v>35.95919667650946</v>
       </c>
     </row>
     <row r="33">
@@ -886,10 +886,10 @@
         <v>59</v>
       </c>
       <c r="C33" t="n">
-        <v>63.27940016134922</v>
+        <v>54.23892897198152</v>
       </c>
       <c r="D33" t="n">
-        <v>38.89471290940386</v>
+        <v>41.35178548779763</v>
       </c>
     </row>
     <row r="34">
@@ -900,10 +900,10 @@
         <v>58</v>
       </c>
       <c r="C34" t="n">
-        <v>52.8943861647997</v>
+        <v>53.64914962527018</v>
       </c>
       <c r="D34" t="n">
-        <v>40.5608990526261</v>
+        <v>39.74600694201012</v>
       </c>
     </row>
     <row r="35">
@@ -914,10 +914,10 @@
         <v>57</v>
       </c>
       <c r="C35" t="n">
-        <v>60.19869817477609</v>
+        <v>55.0896298875854</v>
       </c>
       <c r="D35" t="n">
-        <v>38.11642201253261</v>
+        <v>37.49508843021341</v>
       </c>
     </row>
     <row r="36">
@@ -928,10 +928,10 @@
         <v>56</v>
       </c>
       <c r="C36" t="n">
-        <v>58.3437742533541</v>
+        <v>49.32637665228633</v>
       </c>
       <c r="D36" t="n">
-        <v>38.69964005379872</v>
+        <v>41.56384484681767</v>
       </c>
     </row>
     <row r="37">
@@ -942,10 +942,10 @@
         <v>55</v>
       </c>
       <c r="C37" t="n">
-        <v>49.33639671287246</v>
+        <v>61.98459944963886</v>
       </c>
       <c r="D37" t="n">
-        <v>36.78774895566678</v>
+        <v>40.38279070138335</v>
       </c>
     </row>
     <row r="38">
@@ -956,10 +956,10 @@
         <v>54</v>
       </c>
       <c r="C38" t="n">
-        <v>56.15602844581004</v>
+        <v>49.37476669454755</v>
       </c>
       <c r="D38" t="n">
-        <v>38.95311788317743</v>
+        <v>37.35846805005854</v>
       </c>
     </row>
     <row r="39">
@@ -970,10 +970,10 @@
         <v>53</v>
       </c>
       <c r="C39" t="n">
-        <v>54.13939281114325</v>
+        <v>50.09614178682723</v>
       </c>
       <c r="D39" t="n">
-        <v>42.99462986493926</v>
+        <v>39.29088974897317</v>
       </c>
     </row>
     <row r="40">
@@ -984,10 +984,10 @@
         <v>52</v>
       </c>
       <c r="C40" t="n">
-        <v>52.11385547935021</v>
+        <v>46.23921186578835</v>
       </c>
       <c r="D40" t="n">
-        <v>35.65418081255224</v>
+        <v>37.66071274088515</v>
       </c>
     </row>
     <row r="41">
@@ -998,10 +998,10 @@
         <v>51</v>
       </c>
       <c r="C41" t="n">
-        <v>43.29136341135707</v>
+        <v>52.94471186869887</v>
       </c>
       <c r="D41" t="n">
-        <v>39.87715157825783</v>
+        <v>37.91801125791036</v>
       </c>
     </row>
     <row r="42">
@@ -1012,10 +1012,10 @@
         <v>50</v>
       </c>
       <c r="C42" t="n">
-        <v>50.94829023892417</v>
+        <v>51.85964564294163</v>
       </c>
       <c r="D42" t="n">
-        <v>42.99260049139957</v>
+        <v>35.64785768832928</v>
       </c>
     </row>
     <row r="43">
@@ -1026,10 +1026,10 @@
         <v>49</v>
       </c>
       <c r="C43" t="n">
-        <v>50.76811534890855</v>
+        <v>47.04155808756841</v>
       </c>
       <c r="D43" t="n">
-        <v>38.67165565327421</v>
+        <v>36.4209990117213</v>
       </c>
     </row>
     <row r="44">
@@ -1040,10 +1040,10 @@
         <v>48</v>
       </c>
       <c r="C44" t="n">
-        <v>47.05963575670756</v>
+        <v>44.48642377207945</v>
       </c>
       <c r="D44" t="n">
-        <v>38.99742784554812</v>
+        <v>40.8242437226987</v>
       </c>
     </row>
     <row r="45">
@@ -1054,10 +1054,10 @@
         <v>47</v>
       </c>
       <c r="C45" t="n">
-        <v>43.36039172471047</v>
+        <v>48.82899651092025</v>
       </c>
       <c r="D45" t="n">
-        <v>37.53112110345921</v>
+        <v>38.81972102220788</v>
       </c>
     </row>
     <row r="46">
@@ -1068,10 +1068,10 @@
         <v>46</v>
       </c>
       <c r="C46" t="n">
-        <v>44.86667725038588</v>
+        <v>48.21886888068063</v>
       </c>
       <c r="D46" t="n">
-        <v>37.76155049839331</v>
+        <v>44.58584293970348</v>
       </c>
     </row>
     <row r="47">
@@ -1082,10 +1082,10 @@
         <v>45</v>
       </c>
       <c r="C47" t="n">
-        <v>36.8841321594814</v>
+        <v>44.53966774999761</v>
       </c>
       <c r="D47" t="n">
-        <v>39.56169650953616</v>
+        <v>31.28772684718599</v>
       </c>
     </row>
     <row r="48">
@@ -1096,10 +1096,10 @@
         <v>44</v>
       </c>
       <c r="C48" t="n">
-        <v>46.1941185723435</v>
+        <v>42.70768821546422</v>
       </c>
       <c r="D48" t="n">
-        <v>37.7730644702894</v>
+        <v>33.999861290475</v>
       </c>
     </row>
     <row r="49">
@@ -1110,10 +1110,10 @@
         <v>43</v>
       </c>
       <c r="C49" t="n">
-        <v>41.97163531184587</v>
+        <v>46.11736914790344</v>
       </c>
       <c r="D49" t="n">
-        <v>36.92923340686557</v>
+        <v>38.276262598925</v>
       </c>
     </row>
     <row r="50">
@@ -1124,10 +1124,10 @@
         <v>42</v>
       </c>
       <c r="C50" t="n">
-        <v>50.7887552425487</v>
+        <v>40.65251302941369</v>
       </c>
       <c r="D50" t="n">
-        <v>38.41122635330771</v>
+        <v>37.72604870685551</v>
       </c>
     </row>
     <row r="51">
@@ -1138,10 +1138,10 @@
         <v>41</v>
       </c>
       <c r="C51" t="n">
-        <v>35.36519162481397</v>
+        <v>39.00614558808522</v>
       </c>
       <c r="D51" t="n">
-        <v>42.66345108979358</v>
+        <v>41.85460884033105</v>
       </c>
     </row>
     <row r="52">
@@ -1152,10 +1152,10 @@
         <v>40</v>
       </c>
       <c r="C52" t="n">
-        <v>44.75329477577478</v>
+        <v>42.80579246396861</v>
       </c>
       <c r="D52" t="n">
-        <v>37.92121599175955</v>
+        <v>36.42334007206711</v>
       </c>
     </row>
     <row r="53">
@@ -1166,10 +1166,10 @@
         <v>39</v>
       </c>
       <c r="C53" t="n">
-        <v>34.00637751812491</v>
+        <v>40.56634052518401</v>
       </c>
       <c r="D53" t="n">
-        <v>40.1161113261547</v>
+        <v>39.87245247790395</v>
       </c>
     </row>
     <row r="54">
@@ -1180,10 +1180,10 @@
         <v>38</v>
       </c>
       <c r="C54" t="n">
-        <v>40.5277133359317</v>
+        <v>48.6330559287557</v>
       </c>
       <c r="D54" t="n">
-        <v>44.46874292375429</v>
+        <v>35.67863346619691</v>
       </c>
     </row>
     <row r="55">
@@ -1194,10 +1194,10 @@
         <v>37</v>
       </c>
       <c r="C55" t="n">
-        <v>41.97074988273546</v>
+        <v>31.6043545984142</v>
       </c>
       <c r="D55" t="n">
-        <v>36.51835871579786</v>
+        <v>43.09746041588069</v>
       </c>
     </row>
     <row r="56">
@@ -1208,10 +1208,10 @@
         <v>36</v>
       </c>
       <c r="C56" t="n">
-        <v>37.54977215594664</v>
+        <v>36.96325357143265</v>
       </c>
       <c r="D56" t="n">
-        <v>39.00893569302814</v>
+        <v>38.52249411667199</v>
       </c>
     </row>
     <row r="57">
@@ -1222,10 +1222,10 @@
         <v>35</v>
       </c>
       <c r="C57" t="n">
-        <v>35.22612294267869</v>
+        <v>38.16116815551167</v>
       </c>
       <c r="D57" t="n">
-        <v>36.81296073597039</v>
+        <v>38.77119044354859</v>
       </c>
     </row>
     <row r="58">
@@ -1236,10 +1236,10 @@
         <v>34</v>
       </c>
       <c r="C58" t="n">
-        <v>32.33673953823119</v>
+        <v>38.14161407965027</v>
       </c>
       <c r="D58" t="n">
-        <v>36.80208046481239</v>
+        <v>40.82393183250704</v>
       </c>
     </row>
     <row r="59">
@@ -1250,10 +1250,10 @@
         <v>33</v>
       </c>
       <c r="C59" t="n">
-        <v>28.91698532454143</v>
+        <v>33.69939370353632</v>
       </c>
       <c r="D59" t="n">
-        <v>35.93682690819716</v>
+        <v>36.87925701921585</v>
       </c>
     </row>
     <row r="60">
@@ -1264,10 +1264,10 @@
         <v>32</v>
       </c>
       <c r="C60" t="n">
-        <v>32.5214737535494</v>
+        <v>36.02043403534991</v>
       </c>
       <c r="D60" t="n">
-        <v>42.78893302483835</v>
+        <v>35.37534043051064</v>
       </c>
     </row>
     <row r="61">
@@ -1278,10 +1278,10 @@
         <v>31</v>
       </c>
       <c r="C61" t="n">
-        <v>31.21265210460534</v>
+        <v>27.51755538721382</v>
       </c>
       <c r="D61" t="n">
-        <v>43.50944772853745</v>
+        <v>42.2808695265033</v>
       </c>
     </row>
     <row r="62">
@@ -1292,10 +1292,10 @@
         <v>30</v>
       </c>
       <c r="C62" t="n">
-        <v>27.9505448769516</v>
+        <v>33.24460406673402</v>
       </c>
       <c r="D62" t="n">
-        <v>42.87015629368526</v>
+        <v>37.41445812834311</v>
       </c>
     </row>
     <row r="63">
@@ -1306,10 +1306,10 @@
         <v>29</v>
       </c>
       <c r="C63" t="n">
-        <v>26.97963112677082</v>
+        <v>31.96179184678715</v>
       </c>
       <c r="D63" t="n">
-        <v>40.76920684958964</v>
+        <v>40.69509886672861</v>
       </c>
     </row>
     <row r="64">
@@ -1320,10 +1320,10 @@
         <v>28</v>
       </c>
       <c r="C64" t="n">
-        <v>31.47482854699909</v>
+        <v>26.13605735509404</v>
       </c>
       <c r="D64" t="n">
-        <v>39.6738102651587</v>
+        <v>37.50129419986824</v>
       </c>
     </row>
     <row r="65">
@@ -1334,10 +1334,10 @@
         <v>27</v>
       </c>
       <c r="C65" t="n">
-        <v>23.76496011615942</v>
+        <v>29.34150955132404</v>
       </c>
       <c r="D65" t="n">
-        <v>35.15631155162662</v>
+        <v>40.39571253908372</v>
       </c>
     </row>
     <row r="66">
@@ -1348,10 +1348,10 @@
         <v>26</v>
       </c>
       <c r="C66" t="n">
-        <v>25.55497978392183</v>
+        <v>30.08577098392785</v>
       </c>
       <c r="D66" t="n">
-        <v>37.44937113033017</v>
+        <v>36.55633487158369</v>
       </c>
     </row>
     <row r="67">
@@ -1362,10 +1362,10 @@
         <v>25</v>
       </c>
       <c r="C67" t="n">
-        <v>24.53587948730322</v>
+        <v>23.21459168531745</v>
       </c>
       <c r="D67" t="n">
-        <v>37.89523467274649</v>
+        <v>43.39174741343751</v>
       </c>
     </row>
     <row r="68">
@@ -1376,10 +1376,10 @@
         <v>24</v>
       </c>
       <c r="C68" t="n">
-        <v>29.11129829527155</v>
+        <v>27.19155845163088</v>
       </c>
       <c r="D68" t="n">
-        <v>37.35470039317088</v>
+        <v>37.7388206636533</v>
       </c>
     </row>
     <row r="69">
@@ -1390,10 +1390,10 @@
         <v>23</v>
       </c>
       <c r="C69" t="n">
-        <v>25.73970242975528</v>
+        <v>17.36746779795087</v>
       </c>
       <c r="D69" t="n">
-        <v>40.67250475430788</v>
+        <v>40.98381465608077</v>
       </c>
     </row>
   </sheetData>
